--- a/homewrok_4/Home Task Collections.xlsx
+++ b/homewrok_4/Home Task Collections.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
   <si>
     <t>Замер производительности</t>
   </si>
@@ -197,12 +197,18 @@
   <si>
     <t>https://docs.google.com/document/d/1SgO8p9qrMnV8snUui-N5SjBbBhDuD184F7dxDOMXgXM/edit?usp=sharing</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +340,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -380,7 +394,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,9 +426,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,6 +461,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -621,14 +637,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
@@ -640,38 +656,38 @@
     <col min="9" max="9" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:7" ht="33.75" customHeight="1" thickBot="1">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
         <v>12</v>
@@ -692,80 +708,104 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B9" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="B10" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="23" spans="1:9" ht="33" customHeight="1" thickBot="1">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
         <v>23</v>
@@ -792,73 +832,153 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1">
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1">
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1">
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1">
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1">
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="30" spans="1:9" ht="36.75" customHeight="1" thickBot="1">
+      <c r="B28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
         <v>34</v>
@@ -882,48 +1002,90 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1">
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1">
+      <c r="B31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="36" spans="1:8" ht="30">
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>43</v>
       </c>
@@ -938,12 +1100,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -951,12 +1113,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
